--- a/visualizations - excel/cm.xlsx
+++ b/visualizations - excel/cm.xlsx
@@ -59,29 +59,155 @@
     <t>correctly predicted Hold (TH)</t>
   </si>
   <si>
-    <t>Sell predicted as Buy (FB)</t>
-  </si>
-  <si>
-    <t>Hold predicted as Buy (FB)</t>
-  </si>
-  <si>
-    <t>Hold predicted as Sell (FS)</t>
-  </si>
-  <si>
-    <t>Buy predicted as Sell (FS)</t>
-  </si>
-  <si>
-    <t>Sell predicted as Hold (FH)</t>
-  </si>
-  <si>
-    <t>Buy predicted as Hold  (FH)</t>
+    <r>
+      <t>Sell predicted as Buy (FB</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="238"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sell predicted as Hold (FH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="238"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Buy predicted as Sell (FS</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="238"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Buy predicted as Hold  (FH</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="238"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hold predicted as Sell (FS</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="238"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hold predicted as Buy (FB</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="238"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Roboto"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +230,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
       <charset val="238"/>
@@ -724,7 +864,7 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="B2" sqref="B2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -756,7 +896,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -764,13 +904,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -778,10 +918,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
